--- a/Deliverables/sprint-05/planning-documents.xlsx
+++ b/Deliverables/sprint-05/planning-documents.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="549">
   <si>
     <t>Project Name</t>
   </si>
@@ -433,6 +433,265 @@
   </si>
   <si>
     <t>Definition</t>
+  </si>
+  <si>
+    <t>OpenSearch</t>
+  </si>
+  <si>
+    <t>A search and analytics engine (Elasticsearch fork). In this project, OpenSearch is the target system for load and ingest testing.</t>
+  </si>
+  <si>
+    <t>Load Generator / load-generator</t>
+  </si>
+  <si>
+    <t>Component that produces requests/load against OpenSearch to perform performance and stress tests. Located in the load-generator module.</t>
+  </si>
+  <si>
+    <t>Load Test</t>
+  </si>
+  <si>
+    <t>A planned execution that runs a certain number of queries, a load pattern, or a duration against OpenSearch to measure behavior, throughput and latency.</t>
+  </si>
+  <si>
+    <t>Load Runner / LoadRunnerService</t>
+  </si>
+  <si>
+    <t>Service component that orchestrates query execution for a test (scheduling, threads, rate limiting, metric collection).</t>
+  </si>
+  <si>
+    <t>Query (Search Query)</t>
+  </si>
+  <si>
+    <t>A single search or aggregation request, represented as a JSON template under src/main/resources/queries/ (e.g. q1_ano_payroll_range.json). Templates may include parameters/placeholders.</t>
+  </si>
+  <si>
+    <t>Query Template</t>
+  </si>
+  <si>
+    <t>JSON template for a query with placeholders to be filled at runtime.</t>
+  </si>
+  <si>
+    <t>QueryRunRequest</t>
+  </si>
+  <si>
+    <t>DTO describing a request to run a query in the load generator (which query, repetitions, rate, etc.). Found in controller/QueryRunRequest.java.</t>
+  </si>
+  <si>
+    <t>Query Execution / QueryExecution</t>
+  </si>
+  <si>
+    <t>Abstraction for executing a query against a target. Implementations perform the actual call (or a no-op for dry runs).</t>
+  </si>
+  <si>
+    <t>OpenSearchQueryExecution</t>
+  </si>
+  <si>
+    <t>Concrete QueryExecution implementation that sends requests to OpenSearch.</t>
+  </si>
+  <si>
+    <t>NoOpQueryExecution</t>
+  </si>
+  <si>
+    <t>A test or dry-run implementation of QueryExecution that does not send real requests.</t>
+  </si>
+  <si>
+    <t>QueryExecutionFactory</t>
+  </si>
+  <si>
+    <t>Factory producing appropriate QueryExecution instances depending on configuration or target.</t>
+  </si>
+  <si>
+    <t>QueryRegistry</t>
+  </si>
+  <si>
+    <t>Registry or catalog of available query templates and metadata (names, paths, parameters).</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSearch index: a logical collection of documents defined by mappings.
+</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>A single JSON record stored in an index. Test data is created and indexed as documents.</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Schema-definition for an index (fields and types).</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>OpenSearch operation to group or summarize data (counts, sums, bucket aggregations). Examples: q5_ano_clients_aggregation.json.</t>
+  </si>
+  <si>
+    <t>Range Query</t>
+  </si>
+  <si>
+    <t>A query that filters documents based on numeric or date ranges (e.g., payroll ranges).</t>
+  </si>
+  <si>
+    <t>Match / Term Query</t>
+  </si>
+  <si>
+    <t>Full-text or exact-match queries in OpenSearch.</t>
+  </si>
+  <si>
+    <t>Bulk API / Bulk Indexing</t>
+  </si>
+  <si>
+    <t>Mechanism for inserting many documents in a single request to increase throughput.</t>
+  </si>
+  <si>
+    <t>Ingestion Rate</t>
+  </si>
+  <si>
+    <t>Number of documents indexed per time unit.</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Number of successfully processed requests per second (often QPS).</t>
+  </si>
+  <si>
+    <t>QPS (Queries Per Second)</t>
+  </si>
+  <si>
+    <t>Metric indicating how many queries are executed per second.</t>
+  </si>
+  <si>
+    <t>Concurrency</t>
+  </si>
+  <si>
+    <t>Number of parallel requests/threads during a test.</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Time between request and response. Typical metrics: average, p95, p99.</t>
+  </si>
+  <si>
+    <t>Response Time</t>
+  </si>
+  <si>
+    <t>General term for latency; often reported with distribution statistics.</t>
+  </si>
+  <si>
+    <t>Error Rate</t>
+  </si>
+  <si>
+    <t>Fraction of failed responses (HTTP errors, timeouts) out of total requests.</t>
+  </si>
+  <si>
+    <t>Metrics Collector / metrics-reporter</t>
+  </si>
+  <si>
+    <t>Component that gathers runtime metrics (latency, throughput, errors) and exports or stores them. See metrics-reporter module.</t>
+  </si>
+  <si>
+    <t>MetricsCollectorService</t>
+  </si>
+  <si>
+    <t>Service in load-generator that aggregates metrics from test runs and forwards them to a reporter or sink.</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Data that is indexed into OpenSearch for testing, often generated synthetically (see testdata-generator).</t>
+  </si>
+  <si>
+    <t>testdata-generator</t>
+  </si>
+  <si>
+    <t>Module responsible for generating and optionally storing test datasets (models: AnoRecord, DuoRecord).</t>
+  </si>
+  <si>
+    <t>Ano / AnoRecord</t>
+  </si>
+  <si>
+    <t>Domain model class in the testdata-generator module. Represents a specific record schema used by some queries (fields defined in the model file).</t>
+  </si>
+  <si>
+    <t>Duo / DuoRecord</t>
+  </si>
+  <si>
+    <t>Another domain model in testdata-generator with a different schema; used by queries referencing duo data.</t>
+  </si>
+  <si>
+    <t>Recordable</t>
+  </si>
+  <si>
+    <t>Interface/abstraction implemented by AnoRecord and DuoRecord to provide serialization or indexing behavior.</t>
+  </si>
+  <si>
+    <t>PersistentDataGeneratorService</t>
+  </si>
+  <si>
+    <t>Service that persists generated test data (e.g., to files or external storage).</t>
+  </si>
+  <si>
+    <t>DynamicDataGeneratorService</t>
+  </si>
+  <si>
+    <t>Service that generates test data dynamically at runtime (randomized or parameterized fields).</t>
+  </si>
+  <si>
+    <t>FileStorageService</t>
+  </si>
+  <si>
+    <t>Utility/service for reading and writing generated test data to/from files.</t>
+  </si>
+  <si>
+    <t>OpenSearchDataService</t>
+  </si>
+  <si>
+    <t>Component that communicates with OpenSearch to index, delete, or query data.</t>
+  </si>
+  <si>
+    <t>Client (business entity)</t>
+  </si>
+  <si>
+    <t>Business object representing a customer/client. Queries like q7_duo_client_by_customer_number.json reference client data.</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Business domain entity (e.g., a financial booking or reservation). Appears in queries like q4_duo_booking_by_client_and_state.json.</t>
+  </si>
+  <si>
+    <t>SLA (Service Level Agreement) - general concept</t>
+  </si>
+  <si>
+    <t>Target or acceptance values for latency/throughput/error rates used to validate system behavior under load.</t>
+  </si>
+  <si>
+    <t>Dry-run</t>
+  </si>
+  <si>
+    <t>Mode where queries are not actually sent to OpenSearch (see NoOpQueryExecution).</t>
+  </si>
+  <si>
+    <t>Warmup</t>
+  </si>
+  <si>
+    <t>Pre-measurement phase in load tests to warm caches and stabilize the system before capturing metrics.</t>
+  </si>
+  <si>
+    <t>Backpressure</t>
+  </si>
+  <si>
+    <t>System behavior when the target cannot keep up with the requested throughput; relevant to error rates and latency spikes.</t>
   </si>
   <si>
     <t>Sprint #</t>
@@ -1856,6 +2115,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2022,16 +2287,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -2306,8 +2565,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="419177592"/>
-        <c:axId val="2001244642"/>
+        <c:axId val="1847689915"/>
+        <c:axId val="1462330638"/>
       </c:barChart>
       <c:lineChart>
         <c:varyColors val="0"/>
@@ -2346,11 +2605,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="419177592"/>
-        <c:axId val="2001244642"/>
+        <c:axId val="1847689915"/>
+        <c:axId val="1462330638"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419177592"/>
+        <c:axId val="1847689915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,10 +2661,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2001244642"/>
+        <c:crossAx val="1462330638"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2001244642"/>
+        <c:axId val="1462330638"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2739,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419177592"/>
+        <c:crossAx val="1847689915"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2616,11 +2875,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1573955420"/>
-        <c:axId val="711021364"/>
+        <c:axId val="626326363"/>
+        <c:axId val="227873184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1573955420"/>
+        <c:axId val="626326363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,10 +2931,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711021364"/>
+        <c:crossAx val="227873184"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="711021364"/>
+        <c:axId val="227873184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +3009,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1573955420"/>
+        <c:crossAx val="626326363"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2977,7 +3236,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B20" displayName="Table_5" name="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B44" displayName="Table_5" name="Table_5" id="5">
   <tableColumns count="2">
     <tableColumn name="Term" id="1"/>
     <tableColumn name="Definition" id="2"/>
@@ -3222,756 +3481,756 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>142</v>
+      <c r="A1" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3">
-      <c r="A3" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="A3" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5">
-      <c r="A5" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78">
+      <c r="A5" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80">
         <f>sum(D8:D17)</f>
         <v>90</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="80">
         <f>D5</f>
         <v>90</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7">
-      <c r="A7" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="A7" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="82" t="s">
-        <v>147</v>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="84" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="83">
+      <c r="A9" s="85">
         <v>1.0</v>
       </c>
-      <c r="B9" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78">
+      <c r="B9" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80">
         <f>sum(D26:D35)</f>
         <v>10</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="80">
         <f>$D$5</f>
         <v>90</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="80">
         <f>sum(F26:F35)</f>
         <v>13</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="80">
         <f>$D$5</f>
         <v>90</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="69">
+      <c r="A10" s="71">
         <f t="shared" ref="A10:A11" si="1">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="86">
+      <c r="B10" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="88">
         <f>sum(D36:D46)</f>
         <v>18</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="88">
         <f t="shared" ref="E10:E14" si="2">E9-D9</f>
         <v>80</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="88">
         <f>sum(F36:F46)</f>
         <v>16</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="88">
         <f t="shared" ref="G10:G14" si="3">G9-F9</f>
         <v>77</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="83">
+      <c r="A11" s="85">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78">
+      <c r="B11" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80">
         <f>sum(D47:D54)</f>
         <v>18</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="80">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="80">
         <f>sum(F47:F86)</f>
         <v>23</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="80">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="87">
+      <c r="A12" s="89">
         <v>4.0</v>
       </c>
-      <c r="B12" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71">
+      <c r="B12" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73">
         <f>sum(D57:D62)</f>
         <v>16</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="88">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="86">
+      <c r="F12" s="73"/>
+      <c r="G12" s="88">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="88">
+      <c r="A13" s="90">
         <v>5.0</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77">
+      <c r="B13" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79">
         <f>sum(D66:D74)</f>
         <v>28</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="80">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="86">
+      <c r="F13" s="79"/>
+      <c r="G13" s="88">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="88">
+      <c r="A14" s="90">
         <v>6.0</v>
       </c>
-      <c r="B14" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78">
+      <c r="B14" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="86">
+      <c r="F14" s="79"/>
+      <c r="G14" s="88">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="88">
+      <c r="A15" s="90">
         <v>7.0</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16">
-      <c r="A16" s="88">
+      <c r="A16" s="90">
         <v>8.0</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
     </row>
     <row r="17">
-      <c r="A17" s="87">
+      <c r="A17" s="89">
         <v>9.0</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18">
-      <c r="A18" s="87">
+      <c r="A18" s="89">
         <v>10.0</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="88"/>
     </row>
     <row r="19">
-      <c r="A19" s="87">
+      <c r="A19" s="89">
         <v>11.0</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20">
-      <c r="A20" s="87">
+      <c r="A20" s="89">
         <v>13.0</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21">
-      <c r="A21" s="87">
+      <c r="A21" s="89">
         <v>14.0</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22">
-      <c r="A22" s="87">
+      <c r="A22" s="89">
         <v>15.0</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="24">
-      <c r="A24" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
+      <c r="A24" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26">
-      <c r="A26" s="92">
+      <c r="A26" s="94">
         <f t="shared" ref="A26:B26" si="4">A9</f>
         <v>1</v>
       </c>
-      <c r="B26" s="93" t="str">
+      <c r="B26" s="95" t="str">
         <f t="shared" si="4"/>
         <v>Deliver first increment of initialized software modules and an architecture plan</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27">
-      <c r="A27" s="83"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="95">
+      <c r="A27" s="85"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="97">
         <v>3.0</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="77"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="79"/>
     </row>
     <row r="28">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="96">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="98">
         <v>1.0</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="96">
+      <c r="E28" s="72"/>
+      <c r="F28" s="98">
         <v>1.0</v>
       </c>
-      <c r="G28" s="85"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29">
-      <c r="A29" s="83"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="95">
+      <c r="A29" s="85"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="97">
         <v>1.0</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="95">
+      <c r="E29" s="79"/>
+      <c r="F29" s="97">
         <v>2.0</v>
       </c>
-      <c r="G29" s="77"/>
+      <c r="G29" s="79"/>
     </row>
     <row r="30">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="96">
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="98">
         <v>2.0</v>
       </c>
-      <c r="G30" s="98"/>
+      <c r="G30" s="100"/>
     </row>
     <row r="31">
-      <c r="A31" s="83"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="99">
+      <c r="A31" s="85"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="101">
         <v>2.0</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="99">
+      <c r="E31" s="79"/>
+      <c r="F31" s="101">
         <v>5.0</v>
       </c>
-      <c r="G31" s="77"/>
+      <c r="G31" s="79"/>
     </row>
     <row r="32">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="96">
+      <c r="A32" s="99"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="98">
         <v>1.0</v>
       </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="96">
+      <c r="E32" s="100"/>
+      <c r="F32" s="98">
         <v>1.0</v>
       </c>
-      <c r="G32" s="98"/>
+      <c r="G32" s="100"/>
     </row>
     <row r="33">
-      <c r="A33" s="83"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="77"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="96">
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="98">
         <v>2.0</v>
       </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="96">
+      <c r="E34" s="100"/>
+      <c r="F34" s="98">
         <v>2.0</v>
       </c>
-      <c r="G34" s="98"/>
+      <c r="G34" s="100"/>
     </row>
     <row r="35">
-      <c r="A35" s="83"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="77"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36">
-      <c r="A36" s="92">
+      <c r="A36" s="94">
         <f t="shared" ref="A36:B36" si="5">A10</f>
         <v>2</v>
       </c>
-      <c r="B36" s="93" t="str">
+      <c r="B36" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Deliver increment with Build process implementation and first module prototypes</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
     </row>
     <row r="37">
-      <c r="A37" s="83"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="95">
+      <c r="A37" s="85"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="97">
         <v>5.0</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="95">
+      <c r="E37" s="79"/>
+      <c r="F37" s="97">
         <v>3.0</v>
       </c>
-      <c r="G37" s="77"/>
+      <c r="G37" s="79"/>
     </row>
     <row r="38">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="96">
+      <c r="A38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="98">
         <v>2.0</v>
       </c>
-      <c r="E38" s="98"/>
-      <c r="F38" s="85">
+      <c r="E38" s="100"/>
+      <c r="F38" s="87">
         <v>2.0</v>
       </c>
-      <c r="G38" s="98"/>
+      <c r="G38" s="100"/>
     </row>
     <row r="39">
-      <c r="A39" s="83"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="99">
+      <c r="A39" s="85"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="101">
         <v>3.0</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="95">
+      <c r="E39" s="79"/>
+      <c r="F39" s="97">
         <v>3.0</v>
       </c>
-      <c r="G39" s="77"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="96">
+      <c r="A40" s="99"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="98">
         <v>3.0</v>
       </c>
-      <c r="E40" s="98"/>
-      <c r="F40" s="85">
+      <c r="E40" s="100"/>
+      <c r="F40" s="87">
         <v>3.0</v>
       </c>
-      <c r="G40" s="98"/>
+      <c r="G40" s="100"/>
     </row>
     <row r="41">
-      <c r="A41" s="83"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="95">
+      <c r="A41" s="85"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="97">
         <v>2.0</v>
       </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="95">
+      <c r="E41" s="79"/>
+      <c r="F41" s="97">
         <v>2.0</v>
       </c>
-      <c r="G41" s="77"/>
+      <c r="G41" s="79"/>
     </row>
     <row r="42">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="96">
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="98">
         <v>3.0</v>
       </c>
-      <c r="E42" s="98"/>
-      <c r="F42" s="85">
+      <c r="E42" s="100"/>
+      <c r="F42" s="87">
         <v>3.0</v>
       </c>
-      <c r="G42" s="98"/>
+      <c r="G42" s="100"/>
     </row>
     <row r="43">
-      <c r="A43" s="83"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
     </row>
     <row r="44">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
     </row>
     <row r="45">
-      <c r="A45" s="83"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
     </row>
     <row r="46">
-      <c r="A46" s="97"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
     </row>
     <row r="47">
-      <c r="A47" s="92">
+      <c r="A47" s="94">
         <f t="shared" ref="A47:B47" si="6">A11</f>
         <v>3</v>
       </c>
-      <c r="B47" s="93" t="str">
+      <c r="B47" s="95" t="str">
         <f t="shared" si="6"/>
         <v>Deliver increment with broad prototype implementation coverage</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
     </row>
     <row r="48">
-      <c r="A48" s="83"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="95">
+      <c r="A48" s="85"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="97">
         <v>5.0</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="95">
+      <c r="E48" s="79"/>
+      <c r="F48" s="97">
         <v>3.0</v>
       </c>
-      <c r="G48" s="77"/>
+      <c r="G48" s="79"/>
     </row>
     <row r="49">
-      <c r="A49" s="97"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="96">
+      <c r="A49" s="99"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="98">
         <v>3.0</v>
       </c>
-      <c r="E49" s="98"/>
-      <c r="F49" s="85">
+      <c r="E49" s="100"/>
+      <c r="F49" s="87">
         <v>2.0</v>
       </c>
-      <c r="G49" s="98"/>
+      <c r="G49" s="100"/>
     </row>
     <row r="50">
-      <c r="A50" s="83"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="95">
+      <c r="A50" s="85"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="97">
         <v>2.0</v>
       </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="95">
+      <c r="E50" s="79"/>
+      <c r="F50" s="97">
         <v>2.0</v>
       </c>
-      <c r="G50" s="77"/>
+      <c r="G50" s="79"/>
     </row>
     <row r="51">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="96">
+      <c r="A51" s="99"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="98">
         <v>2.0</v>
       </c>
-      <c r="E51" s="98"/>
-      <c r="F51" s="85">
+      <c r="E51" s="100"/>
+      <c r="F51" s="87">
         <v>2.0</v>
       </c>
-      <c r="G51" s="98"/>
+      <c r="G51" s="100"/>
     </row>
     <row r="52">
-      <c r="A52" s="97"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="96">
+      <c r="A52" s="99"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="98">
         <v>3.0</v>
       </c>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
     </row>
     <row r="53">
-      <c r="A53" s="97"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="96">
+      <c r="A53" s="99"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="98">
         <v>2.0</v>
       </c>
-      <c r="E53" s="98"/>
-      <c r="F53" s="85">
+      <c r="E53" s="100"/>
+      <c r="F53" s="87">
         <v>2.0</v>
       </c>
-      <c r="G53" s="98"/>
+      <c r="G53" s="100"/>
     </row>
     <row r="54">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="96">
+      <c r="A54" s="99"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="98">
         <v>1.0</v>
       </c>
-      <c r="E54" s="98"/>
-      <c r="F54" s="85">
+      <c r="E54" s="100"/>
+      <c r="F54" s="87">
         <v>1.0</v>
       </c>
-      <c r="G54" s="98"/>
+      <c r="G54" s="100"/>
     </row>
     <row r="55">
-      <c r="A55" s="101" t="str">
+      <c r="A55" s="103" t="str">
         <f t="shared" ref="A55:B55" si="7">A25</f>
         <v/>
       </c>
-      <c r="B55" s="101" t="str">
+      <c r="B55" s="103" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3982,87 +4241,87 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="92">
+      <c r="A56" s="94">
         <f t="shared" ref="A56:B56" si="8">A12</f>
         <v>4</v>
       </c>
-      <c r="B56" s="93" t="str">
+      <c r="B56" s="95" t="str">
         <f t="shared" si="8"/>
         <v>Deliver increment with first component integrations implemented</v>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
     </row>
     <row r="57">
-      <c r="A57" s="83"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="95">
+      <c r="A57" s="85"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="97">
         <v>5.0</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="95">
+      <c r="E57" s="79"/>
+      <c r="F57" s="97">
         <v>3.0</v>
       </c>
-      <c r="G57" s="77"/>
+      <c r="G57" s="79"/>
     </row>
     <row r="58">
-      <c r="A58" s="97"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="96">
+      <c r="A58" s="99"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="98">
         <v>3.0</v>
       </c>
-      <c r="E58" s="98"/>
-      <c r="F58" s="85">
+      <c r="E58" s="100"/>
+      <c r="F58" s="87">
         <v>2.0</v>
       </c>
-      <c r="G58" s="98"/>
+      <c r="G58" s="100"/>
     </row>
     <row r="59">
-      <c r="A59" s="83"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="95">
+      <c r="A59" s="85"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" s="97">
         <v>2.0</v>
       </c>
-      <c r="E59" s="77"/>
-      <c r="F59" s="95">
+      <c r="E59" s="79"/>
+      <c r="F59" s="97">
         <v>2.0</v>
       </c>
-      <c r="G59" s="77"/>
+      <c r="G59" s="79"/>
     </row>
     <row r="60">
-      <c r="A60" s="97"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="96">
+      <c r="A60" s="99"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D60" s="98">
         <v>2.0</v>
       </c>
-      <c r="E60" s="98"/>
-      <c r="F60" s="85">
+      <c r="E60" s="100"/>
+      <c r="F60" s="87">
         <v>2.0</v>
       </c>
-      <c r="G60" s="98"/>
+      <c r="G60" s="100"/>
     </row>
     <row r="61">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="103">
+      <c r="C61" s="104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="105">
         <v>3.0</v>
       </c>
       <c r="E61" s="5"/>
@@ -4072,10 +4331,10 @@
     <row r="62">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="103">
+      <c r="C62" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="105">
         <v>1.0</v>
       </c>
       <c r="E62" s="5"/>
@@ -4087,94 +4346,94 @@
     <row r="63">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="103"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="105"/>
       <c r="E63" s="5"/>
       <c r="F63" s="7"/>
       <c r="G63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="97"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="98"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
     </row>
     <row r="65">
-      <c r="A65" s="92">
+      <c r="A65" s="94">
         <f>A13</f>
         <v>5</v>
       </c>
-      <c r="B65" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
+      <c r="B65" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
     </row>
     <row r="66">
-      <c r="A66" s="83"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="95">
+      <c r="A66" s="85"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="97">
         <v>5.0</v>
       </c>
-      <c r="E66" s="77"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="77"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="79"/>
     </row>
     <row r="67">
-      <c r="A67" s="97"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="96">
+      <c r="A67" s="99"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="98">
         <v>3.0</v>
       </c>
-      <c r="E67" s="98"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="98"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="100"/>
     </row>
     <row r="68">
-      <c r="A68" s="83"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="95">
+      <c r="A68" s="85"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="97">
         <v>2.0</v>
       </c>
-      <c r="E68" s="77"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="77"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="79"/>
     </row>
     <row r="69">
-      <c r="A69" s="97"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" s="96">
+      <c r="A69" s="99"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="98">
         <v>2.0</v>
       </c>
-      <c r="E69" s="98"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="98"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="100"/>
     </row>
     <row r="70">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" s="103">
+      <c r="C70" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="105">
         <v>2.0</v>
       </c>
       <c r="E70" s="5"/>
@@ -4184,10 +4443,10 @@
     <row r="71">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="D71" s="103">
+      <c r="C71" s="104" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="105">
         <v>3.0</v>
       </c>
       <c r="E71" s="5"/>
@@ -4197,10 +4456,10 @@
     <row r="72">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" s="103">
+      <c r="C72" s="104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="105">
         <v>3.0</v>
       </c>
       <c r="E72" s="5"/>
@@ -4210,10 +4469,10 @@
     <row r="73">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="103">
+      <c r="C73" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="105">
         <v>5.0</v>
       </c>
       <c r="E73" s="5"/>
@@ -4223,10 +4482,10 @@
     <row r="74">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="103">
+      <c r="C74" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="D74" s="105">
         <v>3.0</v>
       </c>
       <c r="E74" s="5"/>
@@ -4234,79 +4493,79 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75">
-      <c r="A75" s="97"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="98"/>
+      <c r="A75" s="99"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100"/>
     </row>
     <row r="76">
-      <c r="A76" s="92">
+      <c r="A76" s="94">
         <f>A14</f>
         <v>6</v>
       </c>
-      <c r="B76" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
+      <c r="B76" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
     </row>
     <row r="77">
-      <c r="A77" s="83"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="D77" s="95"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="95"/>
-      <c r="G77" s="77"/>
+      <c r="A77" s="85"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="97"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="79"/>
     </row>
     <row r="78">
-      <c r="A78" s="97"/>
-      <c r="B78" s="98"/>
-      <c r="C78" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="96"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="98"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="98"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="100"/>
     </row>
     <row r="79">
-      <c r="A79" s="83"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="95"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="95"/>
-      <c r="G79" s="77"/>
+      <c r="A79" s="85"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="97"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="79"/>
     </row>
     <row r="80">
-      <c r="A80" s="97"/>
-      <c r="B80" s="98"/>
-      <c r="C80" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" s="96"/>
-      <c r="E80" s="98"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="98"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="98"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="100"/>
     </row>
     <row r="81">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="102" t="s">
-        <v>187</v>
-      </c>
-      <c r="D81" s="103"/>
+      <c r="C81" s="104" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="105"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -4314,10 +4573,10 @@
     <row r="82">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="102" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="103"/>
+      <c r="C82" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="105"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -4325,10 +4584,10 @@
     <row r="83">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="102" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="103"/>
+      <c r="C83" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" s="105"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -4336,8 +4595,8 @@
     <row r="84">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="102"/>
-      <c r="D84" s="103"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="105"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4345,31 +4604,31 @@
     <row r="85">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="103"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="105"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
     <row r="86">
-      <c r="A86" s="83"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="78"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="80"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
     </row>
     <row r="87">
-      <c r="A87" s="97"/>
-      <c r="B87" s="98"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4394,15 +4653,15 @@
   </cols>
   <sheetData>
     <row r="23">
-      <c r="A23" s="62" t="s">
-        <v>191</v>
+      <c r="A23" s="64" t="s">
+        <v>277</v>
       </c>
       <c r="B23">
         <f>'Velocity Tracking'!C2</f>
         <v>17.25</v>
       </c>
-      <c r="C23" s="62" t="s">
-        <v>135</v>
+      <c r="C23" s="64" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4432,405 +4691,405 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>142</v>
+      <c r="A1" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3">
-      <c r="A3" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="A3" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5">
-      <c r="A5" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78">
+      <c r="A5" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80">
         <f>sum(D8:D13)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="80">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6">
-      <c r="A6" s="69"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7">
-      <c r="A7" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="A7" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="82" t="s">
-        <v>147</v>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="84" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="83">
+      <c r="A9" s="85">
         <v>1.0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80">
         <f>sum(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="80">
         <f>$D$5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="80">
         <f>sum(F16:F21)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="80">
         <f>$D$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="69">
+      <c r="A10" s="71">
         <f t="shared" ref="A10:A11" si="1">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="86">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="88">
         <f>sum(D22:D27)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="88">
         <f t="shared" ref="E10:E12" si="2">E9-D9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="88">
         <f>sum(F22:F27)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="88">
         <f t="shared" ref="G10:G12" si="3">G9-F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="83">
+      <c r="A11" s="85">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80">
         <f>sum(D28:D33)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="80">
         <f>sum(F28:F33)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="86">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="86">
+      <c r="F12" s="73"/>
+      <c r="G12" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="83"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
     </row>
     <row r="14">
-      <c r="A14" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
+      <c r="A14" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
     </row>
     <row r="15">
-      <c r="A15" s="83"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16">
-      <c r="A16" s="92">
+      <c r="A16" s="94">
         <f>A9</f>
         <v>1</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17">
-      <c r="A17" s="83"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
     </row>
     <row r="18">
-      <c r="A18" s="69"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="70"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="72"/>
     </row>
     <row r="19">
-      <c r="A19" s="83"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="77"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="79"/>
     </row>
     <row r="20">
-      <c r="A20" s="97"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="98"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="100"/>
     </row>
     <row r="21">
-      <c r="A21" s="83"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="77"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="79"/>
     </row>
     <row r="22">
-      <c r="A22" s="92">
+      <c r="A22" s="94">
         <f>A10</f>
         <v>2</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23">
-      <c r="A23" s="83"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24">
-      <c r="A24" s="97"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="98"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="100"/>
     </row>
     <row r="25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="77"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26">
-      <c r="A26" s="97"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="98"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="100"/>
     </row>
     <row r="27">
-      <c r="A27" s="83"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="77"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="79"/>
     </row>
     <row r="28">
-      <c r="A28" s="92">
+      <c r="A28" s="94">
         <f>A11</f>
         <v>3</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29">
-      <c r="A29" s="83"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
     </row>
     <row r="30">
-      <c r="A30" s="97"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
     </row>
     <row r="31">
-      <c r="A31" s="83"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
     </row>
     <row r="32">
-      <c r="A32" s="97"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
     </row>
     <row r="33">
-      <c r="A33" s="83"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34">
-      <c r="A34" s="97"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4860,129 +5119,129 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="110" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="111" t="s">
-        <v>194</v>
+      <c r="B1" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="113" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="114" t="s">
-        <v>198</v>
+      <c r="A2" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="116" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>202</v>
+      <c r="A3" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="118" t="s">
-        <v>203</v>
+      <c r="A4" s="60" t="s">
+        <v>289</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>206</v>
+        <v>290</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="117" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>210</v>
+      <c r="A5" s="118" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="117" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="117" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="117" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="117" t="s">
-        <v>214</v>
+      <c r="A6" s="118" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>218</v>
+      <c r="A7" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="117" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="117" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>222</v>
+      <c r="A8" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="118" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="117" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="117" t="s">
-        <v>226</v>
+      <c r="A9" s="118" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="118" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="10">
@@ -5078,10 +5337,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
@@ -5194,16 +5453,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>64</v>
@@ -5214,19 +5473,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="C2" s="122" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="D2" s="122" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="E2" s="123" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="F2" s="122" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
@@ -5234,19 +5493,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="C3" s="122" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>239</v>
+        <v>324</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>325</v>
       </c>
       <c r="E3" s="123" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F3" s="122" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
@@ -5254,19 +5513,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="122" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="D4" s="122" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="E4" s="123" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
@@ -5274,19 +5533,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="D5" s="125" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
@@ -5294,19 +5553,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="D6" s="125" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
@@ -5314,19 +5573,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="D7" s="125" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="E7" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
@@ -5334,19 +5593,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C8" s="125" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D8" s="125" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="E8" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
@@ -5354,19 +5613,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="D9" s="125" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="E9" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F9" s="125" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -5374,19 +5633,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C10" s="125" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11">
@@ -5394,19 +5653,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -5414,19 +5673,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="D12" s="125" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="E12" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13">
@@ -5434,19 +5693,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="D13" s="125" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="F13" s="125" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14">
@@ -5454,19 +5713,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="D14" s="125" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="E14" s="125" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="F14" s="125" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15">
@@ -5474,19 +5733,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C15" s="125" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="D15" s="125" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="E15" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F15" s="125" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16">
@@ -5494,19 +5753,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C16" s="125" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="D16" s="125" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="E16" s="125" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17">
@@ -5514,19 +5773,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C17" s="125" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="D17" s="125" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="E17" s="125" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="F17" s="125" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18">
@@ -5534,19 +5793,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="D18" s="125" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="E18" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19">
@@ -5554,19 +5813,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="D19" s="125" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F19" s="125" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20">
@@ -5574,19 +5833,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="D20" s="124">
         <v>2.4</v>
       </c>
       <c r="E20" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F20" s="125" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21">
@@ -5594,19 +5853,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C21" s="125" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="D21" s="125" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="E21" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22">
@@ -5614,19 +5873,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="D22" s="125" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F22" s="125" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23">
@@ -5634,19 +5893,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C23" s="125" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="D23" s="125" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="E23" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F23" s="125" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24">
@@ -5654,19 +5913,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="D24" s="125" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="E24" s="125" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="F24" s="125" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25">
@@ -5674,19 +5933,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C25" s="125" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="D25" s="125" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="E25" s="125" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="F25" s="125" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26">
@@ -5694,19 +5953,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="D26" s="125" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="E26" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F26" s="125" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27">
@@ -5714,19 +5973,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C27" s="125" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="D27" s="125" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="E27" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F27" s="125" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28">
@@ -5734,19 +5993,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="D28" s="125" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="E28" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F28" s="125" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29">
@@ -5754,19 +6013,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C29" s="125" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D29" s="125" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="E29" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F29" s="125" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30">
@@ -5774,19 +6033,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="D30" s="125" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="E30" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F30" s="125" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31">
@@ -5794,19 +6053,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C31" s="125" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="D31" s="125" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="E31" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F31" s="125" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32">
@@ -5814,19 +6073,19 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="D32" s="125" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="E32" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F32" s="125" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33">
@@ -5834,19 +6093,19 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C33" s="125" t="s">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="D33" s="125" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="E33" s="125" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="F33" s="125" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34">
@@ -5854,19 +6113,19 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C34" s="125" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="D34" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E34" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F34" s="125" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35">
@@ -5874,19 +6133,19 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C35" s="125" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="D35" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E35" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F35" s="125" t="s">
-        <v>324</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36">
@@ -5894,19 +6153,19 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="D36" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E36" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F36" s="125" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37">
@@ -5914,19 +6173,19 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C37" s="125" t="s">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="D37" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E37" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F37" s="125" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38">
@@ -5934,19 +6193,19 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="D38" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E38" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F38" s="125" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39">
@@ -5954,19 +6213,19 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="D39" s="125" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="E39" s="125" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="F39" s="125" t="s">
-        <v>334</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40">
@@ -5974,19 +6233,19 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="D40" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E40" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F40" s="125" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41">
@@ -5994,19 +6253,19 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="D41" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E41" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F41" s="125" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42">
@@ -6014,19 +6273,19 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="D42" s="125" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="E42" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F42" s="125" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
@@ -6034,19 +6293,19 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C43" s="125" t="s">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="D43" s="125" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="E43" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F43" s="125" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
@@ -6054,19 +6313,19 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="D44" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E44" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F44" s="125" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45">
@@ -6074,19 +6333,19 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C45" s="125" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="D45" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E45" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F45" s="125" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46">
@@ -6094,19 +6353,19 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C46" s="125" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="D46" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E46" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F46" s="125" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47">
@@ -6114,19 +6373,19 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C47" s="125" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="D47" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E47" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F47" s="125" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48">
@@ -6134,19 +6393,19 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="D48" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E48" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F48" s="125" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49">
@@ -6154,19 +6413,19 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C49" s="125" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="D49" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E49" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F49" s="125" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
@@ -6174,19 +6433,19 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C50" s="125" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="D50" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E50" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F50" s="125" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51">
@@ -6194,19 +6453,19 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C51" s="125" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="D51" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E51" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F51" s="125" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52">
@@ -6214,19 +6473,19 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="D52" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E52" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F52" s="125" t="s">
-        <v>362</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53">
@@ -6234,19 +6493,19 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="D53" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E53" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F53" s="125" t="s">
-        <v>364</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
@@ -6254,19 +6513,19 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C54" s="125" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="D54" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E54" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F54" s="125" t="s">
-        <v>366</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55">
@@ -6274,19 +6533,19 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C55" s="125" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="D55" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E55" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F55" s="125" t="s">
-        <v>368</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56">
@@ -6294,19 +6553,19 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="D56" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E56" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F56" s="125" t="s">
-        <v>370</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57">
@@ -6314,19 +6573,19 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C57" s="125" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="D57" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E57" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F57" s="125" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58">
@@ -6334,19 +6593,19 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C58" s="125" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
       <c r="D58" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E58" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F58" s="125" t="s">
-        <v>374</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
@@ -6354,19 +6613,19 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>375</v>
+        <v>461</v>
       </c>
       <c r="D59" s="125" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E59" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F59" s="125" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60">
@@ -6374,19 +6633,19 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C60" s="125" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="D60" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E60" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F60" s="125" t="s">
-        <v>378</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61">
@@ -6394,19 +6653,19 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C61" s="125" t="s">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="D61" s="125" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="E61" s="125" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="F61" s="125" t="s">
-        <v>381</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62">
@@ -6414,19 +6673,19 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C62" s="125" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="D62" s="125" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="E62" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F62" s="125" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63">
@@ -6434,19 +6693,19 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C63" s="125" t="s">
-        <v>385</v>
+        <v>471</v>
       </c>
       <c r="D63" s="124">
         <v>3.2</v>
       </c>
       <c r="E63" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F63" s="125" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64">
@@ -6454,19 +6713,19 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C64" s="125" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="D64" s="125" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="E64" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F64" s="125" t="s">
-        <v>388</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65">
@@ -6474,19 +6733,19 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C65" s="125" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="D65" s="125" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="E65" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F65" s="125" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66">
@@ -6494,19 +6753,19 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C66" s="125" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="D66" s="125" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="E66" s="125" t="s">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="F66" s="125" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67">
@@ -6514,19 +6773,19 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C67" s="125" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="D67" s="125" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="E67" s="125" t="s">
-        <v>397</v>
+        <v>483</v>
       </c>
       <c r="F67" s="125" t="s">
-        <v>398</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68">
@@ -6534,19 +6793,19 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C68" s="125" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="D68" s="125" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="E68" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F68" s="125" t="s">
-        <v>401</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69">
@@ -6554,19 +6813,19 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C69" s="125" t="s">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="D69" s="125" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="E69" s="125" t="s">
-        <v>404</v>
+        <v>490</v>
       </c>
       <c r="F69" s="125" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70">
@@ -6574,19 +6833,19 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C70" s="125" t="s">
-        <v>406</v>
+        <v>492</v>
       </c>
       <c r="D70" s="125" t="s">
-        <v>407</v>
+        <v>493</v>
       </c>
       <c r="E70" s="125" t="s">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="F70" s="125" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71">
@@ -6594,19 +6853,19 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C71" s="125" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
       <c r="D71" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E71" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F71" s="125" t="s">
-        <v>411</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72">
@@ -6614,19 +6873,19 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="D72" s="125" t="s">
-        <v>413</v>
+        <v>499</v>
       </c>
       <c r="E72" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F72" s="125" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73">
@@ -6634,19 +6893,19 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="D73" s="125" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="E73" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F73" s="125" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
     </row>
     <row r="74">
@@ -6654,19 +6913,19 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="D74" s="125" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="E74" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F74" s="125" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75">
@@ -6674,19 +6933,19 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="D75" s="125" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="E75" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F75" s="125" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76">
@@ -6694,19 +6953,19 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="D76" s="125" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="E76" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F76" s="125" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77">
@@ -6714,19 +6973,19 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="D77" s="124">
         <v>1.2</v>
       </c>
       <c r="E77" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F77" s="125" t="s">
-        <v>427</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78">
@@ -6734,19 +6993,19 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C78" s="125" t="s">
-        <v>428</v>
+        <v>514</v>
       </c>
       <c r="D78" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E78" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F78" s="125" t="s">
-        <v>429</v>
+        <v>515</v>
       </c>
     </row>
     <row r="79">
@@ -6754,19 +7013,19 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C79" s="125" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="D79" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E79" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F79" s="125" t="s">
-        <v>431</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80">
@@ -6774,19 +7033,19 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C80" s="125" t="s">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="D80" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E80" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F80" s="125" t="s">
-        <v>433</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81">
@@ -6794,19 +7053,19 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C81" s="125" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="D81" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E81" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F81" s="125" t="s">
-        <v>435</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82">
@@ -6814,19 +7073,19 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C82" s="125" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
       <c r="D82" s="125" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="E82" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F82" s="125" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83">
@@ -6834,19 +7093,19 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C83" s="125" t="s">
-        <v>438</v>
+        <v>524</v>
       </c>
       <c r="D83" s="125" t="s">
-        <v>439</v>
+        <v>525</v>
       </c>
       <c r="E83" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F83" s="125" t="s">
-        <v>440</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84">
@@ -6854,19 +7113,19 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D84" s="125" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="E84" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F84" s="125" t="s">
-        <v>442</v>
+        <v>528</v>
       </c>
     </row>
     <row r="85">
@@ -6874,19 +7133,19 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>443</v>
+        <v>529</v>
       </c>
       <c r="D85" s="125" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="E85" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F85" s="125" t="s">
-        <v>444</v>
+        <v>530</v>
       </c>
     </row>
     <row r="86">
@@ -6894,19 +7153,19 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>445</v>
+        <v>531</v>
       </c>
       <c r="D86" s="125" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="E86" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F86" s="125" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87">
@@ -6914,19 +7173,19 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C87" s="125" t="s">
-        <v>447</v>
+        <v>533</v>
       </c>
       <c r="D87" s="125" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="E87" s="125" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="F87" s="125" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88">
@@ -6934,19 +7193,19 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="125" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="C88" s="125" t="s">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="D88" s="125" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="E88" s="125" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="F88" s="125" t="s">
-        <v>450</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6985,7 +7244,7 @@
         <v>First Name</v>
       </c>
       <c r="C1" s="127" t="s">
-        <v>451</v>
+        <v>537</v>
       </c>
       <c r="D1" s="128"/>
       <c r="E1" s="129"/>
@@ -7078,7 +7337,7 @@
         <v>0.0</v>
       </c>
       <c r="F6" s="146" t="s">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
@@ -7098,7 +7357,7 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>453</v>
+        <v>539</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="140"/>
@@ -7118,7 +7377,7 @@
         <v>2.0</v>
       </c>
       <c r="F8" s="146" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="G8" s="137"/>
       <c r="H8" s="137"/>
@@ -7138,7 +7397,7 @@
         <v>3.0</v>
       </c>
       <c r="F9" s="146" t="s">
-        <v>455</v>
+        <v>541</v>
       </c>
       <c r="G9" s="140"/>
       <c r="H9" s="140"/>
@@ -7158,7 +7417,7 @@
         <v>5.0</v>
       </c>
       <c r="F10" s="146" t="s">
-        <v>456</v>
+        <v>542</v>
       </c>
       <c r="G10" s="137"/>
       <c r="H10" s="137"/>
@@ -7172,7 +7431,7 @@
         <v>8.0</v>
       </c>
       <c r="F11" s="146" t="s">
-        <v>457</v>
+        <v>543</v>
       </c>
       <c r="G11" s="140"/>
       <c r="H11" s="140"/>
@@ -7186,7 +7445,7 @@
         <v>13.0</v>
       </c>
       <c r="F12" s="146" t="s">
-        <v>458</v>
+        <v>544</v>
       </c>
       <c r="G12" s="137"/>
       <c r="H12" s="137"/>
@@ -7203,7 +7462,7 @@
     </row>
     <row r="14">
       <c r="A14" s="147" t="s">
-        <v>459</v>
+        <v>545</v>
       </c>
       <c r="B14" s="148"/>
       <c r="C14" s="148"/>
@@ -7225,7 +7484,7 @@
     </row>
     <row r="16">
       <c r="A16" s="150" t="s">
-        <v>460</v>
+        <v>546</v>
       </c>
       <c r="B16" s="151"/>
       <c r="C16" s="151"/>
@@ -7237,7 +7496,7 @@
     </row>
     <row r="17">
       <c r="A17" s="152" t="s">
-        <v>461</v>
+        <v>547</v>
       </c>
       <c r="B17" s="149"/>
       <c r="C17" s="149"/>
@@ -7249,7 +7508,7 @@
     </row>
     <row r="18">
       <c r="A18" s="150" t="s">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="B18" s="151"/>
       <c r="C18" s="151"/>
@@ -8323,6 +8582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8345,82 +8605,353 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -8447,143 +8978,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>126</v>
+      <c r="A1" s="62" t="s">
+        <v>212</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <v>1.0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <f t="shared" ref="A3:A16" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61">
+      <c r="A5" s="63">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>129</v>
+      <c r="B5" s="64" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="61">
+      <c r="A6" s="63">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="61">
+      <c r="A7" s="63">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="61">
+      <c r="A8" s="63">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="61">
+      <c r="A9" s="63">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="61">
+      <c r="A10" s="63">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="61">
+      <c r="A11" s="63">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="61">
+      <c r="A12" s="63">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="63">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="61">
+      <c r="A14" s="63">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="61">
+      <c r="A15" s="63">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="61">
+      <c r="A16" s="63">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="61"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="61"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="63"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="63"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -8615,16 +9146,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>126</v>
+      <c r="A1" s="62" t="s">
+        <v>212</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <v>1.0</v>
       </c>
       <c r="B2" s="12">
@@ -8636,7 +9167,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <f t="shared" ref="A3:A16" si="2">A2+1</f>
         <v>2</v>
       </c>
@@ -8649,7 +9180,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -8662,11 +9193,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61">
+      <c r="A5" s="63">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="64">
         <v>20.0</v>
       </c>
       <c r="C5" s="2">
@@ -8675,7 +9206,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="61">
+      <c r="A6" s="63">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -8686,7 +9217,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="61">
+      <c r="A7" s="63">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -8697,7 +9228,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="61">
+      <c r="A8" s="63">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -8708,7 +9239,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="61">
+      <c r="A9" s="63">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -8719,7 +9250,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="61">
+      <c r="A10" s="63">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -8730,7 +9261,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="61">
+      <c r="A11" s="63">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -8741,7 +9272,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="61">
+      <c r="A12" s="63">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8752,7 +9283,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="63">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -8763,7 +9294,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="61">
+      <c r="A14" s="63">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8774,7 +9305,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="61">
+      <c r="A15" s="63">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -8785,7 +9316,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="61">
+      <c r="A16" s="63">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -8796,24 +9327,24 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="61"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="61"/>
-      <c r="B18" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="64"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="66"/>
     </row>
     <row r="19">
-      <c r="A19" s="63"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="63"/>
+      <c r="A20" s="65"/>
       <c r="C20" s="2"/>
     </row>
   </sheetData>
@@ -8836,15 +9367,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="23">
-      <c r="A23" s="62" t="s">
-        <v>134</v>
+      <c r="A23" s="64" t="s">
+        <v>220</v>
       </c>
       <c r="B23">
         <f>'Velocity Tracking'!C2</f>
         <v>17.25</v>
       </c>
-      <c r="C23" s="62" t="s">
-        <v>135</v>
+      <c r="C23" s="64" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
